--- a/data/trans_orig/TAM_HOG-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Estudios-trans_orig.xlsx
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 2,76</t>
+          <t>2,58; 2,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,4</t>
+          <t>2,19; 2,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 2,97</t>
+          <t>2,82; 2,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 2,68</t>
+          <t>2,5; 2,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,18</t>
+          <t>2,03; 2,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 2,98</t>
+          <t>2,85; 2,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 2,87</t>
+          <t>2,76; 2,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 2,69</t>
+          <t>2,55; 2,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 2,24</t>
+          <t>2,12; 2,23</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 3,37</t>
+          <t>3,26; 3,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,17 +874,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,14</t>
+          <t>3,02; 3,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,2</t>
+          <t>2,78; 3,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 3,58</t>
+          <t>3,46; 3,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,14</t>
+          <t>3,05; 3,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,05</t>
+          <t>2,88; 3,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 3,44</t>
+          <t>3,36; 3,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,13</t>
+          <t>3,05; 3,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,17</t>
+          <t>2,88; 3,14</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 2,87</t>
+          <t>2,64; 2,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,89</t>
+          <t>2,69; 2,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1029,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,23</t>
+          <t>2,99; 3,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,02</t>
+          <t>2,8; 3,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 2,93</t>
+          <t>2,78; 2,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,2</t>
+          <t>3,05; 3,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,15</t>
+          <t>3,0; 3,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 2,91</t>
+          <t>2,76; 2,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 2,89</t>
+          <t>2,76; 2,89</t>
         </is>
       </c>
     </row>
@@ -1154,37 +1154,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 2,99</t>
+          <t>2,9; 2,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,06</t>
+          <t>2,7; 3,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,26</t>
+          <t>3,17; 3,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 3,2</t>
+          <t>3,11; 3,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 2,97</t>
+          <t>2,87; 2,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 2,84</t>
+          <t>2,72; 2,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 3,23</t>
+          <t>3,16; 3,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 2,95</t>
+          <t>2,73; 2,93</t>
         </is>
       </c>
     </row>
